--- a/experiment result/128_0.3_40_zs20_kappa_lp.xlsx
+++ b/experiment result/128_0.3_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04457979395497142</v>
+        <v>0.003104967319336005</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05828795087734838</v>
+        <v>0.0162391583102332</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1026904763289691</v>
+        <v>0.0450114675238968</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06717416146780499</v>
+        <v>0.025008489723861</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05827520236477953</v>
+        <v>0.006368474236385905</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08904116742880341</v>
+        <v>0.03642884257228563</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08191864937084975</v>
+        <v>0.04338196963407401</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06909763483462503</v>
+        <v>0.009141329120922675</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07306285858864973</v>
+        <v>0.0239280681851203</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06554086815088814</v>
+        <v>0.05670922141827481</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09115571599707331</v>
+        <v>0.02330005903068681</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09394997299005432</v>
+        <v>0.06009419307187704</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08743279585353325</v>
+        <v>0.01463428550584144</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07592312519154155</v>
+        <v>0.01345790298474577</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07834622131051122</v>
+        <v>0.03434497159135216</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07041520559599629</v>
+        <v>0.02174021875345799</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06666401882531629</v>
+        <v>0.01726242745005668</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04858502574837837</v>
+        <v>0.001706657637214023</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07044252687620892</v>
+        <v>0.0698114779355057</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06412210863272962</v>
+        <v>0.02069958483179196</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0533175979163323</v>
+        <v>0.006958277922176144</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05745203263587545</v>
+        <v>0.008076298848435954</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07644393720170113</v>
+        <v>0.04898571397075942</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04183737929744414</v>
+        <v>0.01040719483494837</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03665757001121309</v>
+        <v>0.001061231799486274</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07501875780367981</v>
+        <v>0.01733683853900426</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07697594451354772</v>
+        <v>0.007224218933714681</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06350273222156899</v>
+        <v>0.02690681079025301</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0612448140633157</v>
+        <v>0.02621489070805575</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07751783261598647</v>
+        <v>0.03116267045425182</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03341132122052676</v>
+        <v>0.0004351529903411287</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06938297162536788</v>
+        <v>0.00583736098757878</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0678421552499244</v>
+        <v>0.04335791980894442</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05853129265115429</v>
+        <v>0.02327918090634548</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0784741233981557</v>
+        <v>0.02648888400709067</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08341276264866607</v>
+        <v>0.05640430814461114</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06530092778783456</v>
+        <v>0.0161073186163822</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06323267651964003</v>
+        <v>0.008539687366191274</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08007194824585914</v>
+        <v>0.03384420775084599</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08870176147354092</v>
+        <v>0.03660087631917178</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07502252085285492</v>
+        <v>0.05169178705032135</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04149098107310784</v>
+        <v>0.03045144799505055</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07589816848517589</v>
+        <v>0.04575085946663138</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07313191766073979</v>
+        <v>0.03385213598697262</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06804447950370342</v>
+        <v>0.04646138894270706</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1075449204348126</v>
+        <v>0.07721368287873553</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09485281228984621</v>
+        <v>0.07001882088418362</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05831575974676913</v>
+        <v>0.008421813484383161</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08599057115207978</v>
+        <v>0.01232074083578822</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05506793081953019</v>
+        <v>0.004119596310907024</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06299816860385569</v>
+        <v>0.01417876817456576</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05717842603965997</v>
+        <v>0.0286428787493025</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03159161048354354</v>
+        <v>0.00267637868740598</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04305380606678811</v>
+        <v>0.005174631336000707</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0658309276378726</v>
+        <v>0.01871861052972774</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0536581885822584</v>
+        <v>0.02754242800757689</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06689239613257805</v>
+        <v>0.02248238402215987</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0706192047203541</v>
+        <v>0.02343904517189797</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0553402987534702</v>
+        <v>0.0153039651203421</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.08048174952506153</v>
+        <v>0.0270082227205688</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02569004457557403</v>
+        <v>0.001570039701242282</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05379057141239611</v>
+        <v>0.005687143718880706</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04625099930271202</v>
+        <v>0.006250309723428801</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.05106491065413251</v>
+        <v>0.0109633026035775</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.05548663493199407</v>
+        <v>0.008932583353317583</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07739815408822737</v>
+        <v>0.02615954041132299</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07232601087961528</v>
+        <v>0.01892425260122327</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06114257976156164</v>
+        <v>0.01749899131914062</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05393132149019443</v>
+        <v>0.01591206044879103</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04755527319880436</v>
+        <v>0.01019134498038126</v>
       </c>
     </row>
   </sheetData>
